--- a/DisplayNodes/Customer nodes/Results/Total results/CombinedAgents.xlsx
+++ b/DisplayNodes/Customer nodes/Results/Total results/CombinedAgents.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel\source\repos\VRPdiss\DisplayNodes\Customer nodes\Results\Total results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6B9D8B-2F70-46E4-AC55-E406AD5D2A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFED59F-1D03-484B-8D94-41B2E123EFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
   <si>
     <t>Day 1</t>
   </si>
@@ -153,14 +153,37 @@
   </si>
   <si>
     <t>Agent 10</t>
+  </si>
+  <si>
+    <t>Meters saved in day</t>
+  </si>
+  <si>
+    <t>Meters saved by agent</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Sum of all meters saved</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -188,14 +211,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -218,44 +245,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -282,15 +309,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -317,7 +343,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -329,329 +354,356 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE15"/>
+  <dimension ref="A1:AG17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE15" sqref="AE15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.140625" customWidth="1"/>
+    <col min="31" max="31" width="13" customWidth="1"/>
+    <col min="32" max="32" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="AF1" s="2"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B2">
-        <v>-408.14251715359927</v>
+        <v>740.02988068832201</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>740.02988068832201</v>
       </c>
       <c r="D2">
-        <v>1035.2621734078771</v>
+        <v>740.02988068832201</v>
       </c>
       <c r="E2">
-        <v>732.48747615240791</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>873.74983863545094</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1186.944789305528</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1223.341959934889</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1551.893348861455</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>-64.441754793429936</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>507.30483069647562</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>-814.271405122955</v>
+        <v>-54.25758828926746</v>
       </c>
       <c r="M2">
-        <v>-996.24948081244838</v>
+        <v>-289.68859947340297</v>
       </c>
       <c r="N2">
-        <v>38.356920261816413</v>
+        <v>7.3935708073440756</v>
       </c>
       <c r="O2">
-        <v>-5.4420707880053669</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1219.363593997916</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>588.56665489234365</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>1069.157220275933</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>1580.2638703330181</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>-415.8004329002074</v>
+        <v>-351.57935795494882</v>
       </c>
       <c r="V2">
-        <v>579.73111270961454</v>
+        <v>0</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-283.23233480853651</v>
+        <v>697.67566464615311</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-236.63375941453711</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -660,143 +712,157 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>1368.3601793235539</v>
+        <v>598.75731905070006</v>
       </c>
       <c r="AD2">
-        <v>-756.90151623914608</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>-238.623585206672</v>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG2">
+        <f>SUM(B2:AE2)</f>
+        <v>2828.3906508515438</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3">
-        <v>994.11364587128583</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>970.05962230672594</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1025.690955367802</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1271.9722309285239</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1455.4498649393031</v>
+        <v>698.78116496146504</v>
       </c>
       <c r="G3">
-        <v>-262.41674730535311</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>-594.23399355557012</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>-185.02251643394629</v>
       </c>
       <c r="K3">
-        <v>-527.59846485826529</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1020.145278243448</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-469.24860857510788</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>735.49271054337441</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.34999767891895323</v>
       </c>
       <c r="R3">
-        <v>-525.00551517448912</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>2.6285980962938988</v>
       </c>
       <c r="T3">
-        <v>1449.780021212795</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>-6.0853026802915338</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1250.1882334219199</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>1065.436338116783</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>1446.4506497557411</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>1647.4429285407341</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>1165.3643663096279</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>-2.7793880113677009E-2</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>-775.59954781699707</v>
+        <v>-203.81365625197509</v>
       </c>
       <c r="AD3">
-        <v>1344.449942957724</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>1112.168317970099</v>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" ref="AG3:AG11" si="0">SUM(B3:AE3)</f>
+        <v>312.92358805075651</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B4">
-        <v>-264.03518052451273</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>-686.05853409765086</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>-1186.5181992468399</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>-558.35807449679669</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>964.90097872876504</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>423.99715361445942</v>
       </c>
       <c r="H4">
-        <v>798.44561356560916</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>-661.63814295953853</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>-122.8915069479081</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>475.41051965608131</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -805,170 +871,184 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1094.8156423360399</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>943.39605811344154</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1.0678967063959131</v>
       </c>
       <c r="Q4">
-        <v>-392.88110196375783</v>
+        <v>-188.93606000327239</v>
       </c>
       <c r="R4">
-        <v>-485.21855512558483</v>
+        <v>-46.8843430752122</v>
       </c>
       <c r="S4">
-        <v>-926.68150987817808</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>-170.22690455976141</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>1207.569521753569</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>652.57623322065137</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>530.40087093175498</v>
       </c>
       <c r="Z4">
-        <v>1423.694413896648</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>-429.62012263564981</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>-112.2268827231364</v>
+        <v>-225.17546908565151</v>
       </c>
       <c r="AC4">
-        <v>947.51334190029957</v>
+        <v>810.87336318514463</v>
       </c>
       <c r="AD4">
-        <v>668.55363191681136</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>1209.341860321796</v>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="0"/>
+        <v>1305.3434122736189</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B5">
-        <v>-20.165532591876399</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>955.83282658358439</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1437.014478717947</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>-26.490917122870091</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1119.822315721447</v>
       </c>
       <c r="G5">
-        <v>-238.54887564656201</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>753.32217773273442</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1415.5141082507971</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1147.3086840683609</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>-74.060785845142163</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>1245.237658651406</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>721.5725369104448</v>
+        <v>-114.03793222862031</v>
       </c>
       <c r="O5">
-        <v>1147.720133528723</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>-135.47337072212389</v>
+        <v>323.73394949454951</v>
       </c>
       <c r="Q5">
-        <v>-307.20800242347377</v>
+        <v>-67.762239794231391</v>
       </c>
       <c r="R5">
-        <v>1113.8881863281749</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>240.42859258763841</v>
+        <v>-56.42629327476152</v>
       </c>
       <c r="T5">
-        <v>1454.546017692654</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>1649.173715012299</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>-133.31736665622699</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>965.44661366468608</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>1153.5609198763759</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>-215.4105550889108</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1259.2811704926489</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>1135.8693120781461</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>1214.8587923074299</v>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="0"/>
+        <v>2464.6109704110322</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B6">
-        <v>1258.4075452811469</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>-238.1121917613018</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>678.09240161444177</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1771.7346162039521</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -977,34 +1057,34 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>679.39821147434668</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>880.69698760616848</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>3.876219581115492</v>
       </c>
       <c r="K6">
-        <v>83.298544329288234</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1173.459233859068</v>
+        <v>65.827529587239042</v>
       </c>
       <c r="M6">
-        <v>966.93078805953155</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1571.622779082621</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>869.23365160296089</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>743.53295799823718</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1258.459881790566</v>
+        <v>-34.996586303056567</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1013,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>857.96428037881378</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1022,57 +1102,64 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>961.96194980559994</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>903.22511486899566</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>-565.36863444497612</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>1233.233754183542</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>1194.8909893732889</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>1361.528686874846</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>-238.34390103300029</v>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="0"/>
+        <v>34.707162865297967</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>538.46616312053266</v>
       </c>
       <c r="C7">
-        <v>-2.5885444537398139</v>
+        <v>538.46616312053266</v>
       </c>
       <c r="D7">
-        <v>-67.03159960162111</v>
+        <v>538.46616312053266</v>
       </c>
       <c r="E7">
-        <v>978.77487395985008</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1176.673128988383</v>
+        <v>167.59062455440929</v>
       </c>
       <c r="H7">
-        <v>907.86261217950778</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1081,194 +1168,208 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>-98.294028463209543</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>-159.59589933529969</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>823.37888500508598</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1517.104015420424</v>
+        <v>11.70090084267304</v>
       </c>
       <c r="O7">
-        <v>1269.41447069286</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>832.77761585075314</v>
+        <v>372.47241967028731</v>
       </c>
       <c r="R7">
-        <v>971.27789847590793</v>
+        <v>2.7459626562631462E-4</v>
       </c>
       <c r="S7">
-        <v>951.6366120878356</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>801.75370282899166</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>1194.2563591096009</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>-1118.2438098703351</v>
+        <v>-58.275816928379299</v>
       </c>
       <c r="W7">
-        <v>1466.438399368111</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>1483.974522527111</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>-493.09981966530182</v>
+        <v>-60.373835392494129</v>
       </c>
       <c r="Z7">
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>1520.9771504309219</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>1246.5066494165731</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>818.43830563814572</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>1515.0348380917089</v>
+        <v>0</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
+      <c r="AF7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="0"/>
+        <v>2048.5130567043598</v>
+      </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B8">
-        <v>1007.858237065537</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>660.44620014304746</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>-259.261648206887</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1075.63840525564</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1317.226404573772</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1403.716928550057</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1209.6885633092461</v>
+        <v>62.389145360782997</v>
       </c>
       <c r="K8">
-        <v>1465.1509931987889</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>848.28702365301251</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>-123.5192421586507</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>-502.16662565609289</v>
+        <v>-440.52550485498068</v>
       </c>
       <c r="O8">
-        <v>1134.1230730393911</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>1621.3555343202131</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>167.19001567361741</v>
       </c>
       <c r="R8">
-        <v>1274.263011495628</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>953.63723047936674</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>676.18045921671182</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>-474.5392665532072</v>
+        <v>537.70303999545376</v>
       </c>
       <c r="V8">
-        <v>1146.074958030056</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>857.79783368185372</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>1398.5434661786619</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>-994.67666285161522</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>-164.97607773107711</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>-348.62930316856819</v>
+        <v>-134.96499457787741</v>
       </c>
       <c r="AB8">
-        <v>1297.1844979480941</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>1256.939876687318</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>-298.50405206297552</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>1261.8836361814649</v>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="0"/>
+        <v>191.79170159699606</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>-206.06488371071549</v>
       </c>
       <c r="C9">
-        <v>959.36701445706331</v>
+        <v>-206.06488371071549</v>
       </c>
       <c r="D9">
-        <v>1162.128519377419</v>
+        <v>-206.06488371071549</v>
       </c>
       <c r="E9">
-        <v>1403.978622418337</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>-291.40987311408207</v>
+        <v>-116.1284877434059</v>
       </c>
       <c r="G9">
-        <v>1512.491668798672</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1368.9451744119649</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>925.4278670731328</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1353.465238231058</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1280,102 +1381,109 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>778.88756075548645</v>
       </c>
       <c r="O9">
-        <v>1539.1902688535879</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>1066.9933566846851</v>
+        <v>-61.453328299453908</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>937.04487389083079</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>-13.289870409733339</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>-282.32343478787237</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>1349.455562384501</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>555.72996778634661</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>608.80495019133195</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>1087.456552366021</v>
+        <v>38.178445522844413</v>
       </c>
       <c r="Y9">
-        <v>1464.868157040142</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>989.91056104612289</v>
+        <v>714.3819629576883</v>
       </c>
       <c r="AB9">
-        <v>612.16728266502469</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>-178.65996913686101</v>
+        <v>0</v>
       </c>
       <c r="AD9">
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>1248.3978681126939</v>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="0"/>
+        <v>735.67150206101292</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1407.247162392274</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>-87.516786434211099</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>542.92767186114543</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1048.129866248968</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>-116.6979919082623</v>
+        <v>-257.13127160030513</v>
       </c>
       <c r="H10">
-        <v>1025.6641265574051</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>992.03739566747845</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>641.45223864989748</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1542.851841859419</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1032.5841479199121</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>679.34719905888551</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1387,96 +1495,103 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>1009.246022409052</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>1060.7414068636349</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>1486.0572990196911</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>447.11872853748042</v>
       </c>
       <c r="W10">
-        <v>811.77246345192543</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-234.09090551112419</v>
+        <v>-262.66089198636467</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>988.38608787719568</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>593.90259743357819</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>682.02953435835616</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>1584.438989736755</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>601.44237339227038</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>-164.57895435660981</v>
+        <v>-41.339994895525713</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="0"/>
+        <v>-114.01342994471509</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1255.6186376803671</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1123.881710609392</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>796.25956983672404</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>-698.85125630947505</v>
+        <v>-60.154755002109141</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>900.72724133194788</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>708.88361062068543</v>
+        <v>-59.369417408367553</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1094.036320694006</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>3.0351458053046372</v>
       </c>
       <c r="N11">
-        <v>654.82358804668547</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>-477.61829131298691</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1485,25 +1600,25 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>630.1690306474602</v>
+        <v>0</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>1979.088897585194</v>
+        <v>17.259773898826101</v>
       </c>
       <c r="V11">
-        <v>672.06844321282006</v>
+        <v>421.16878675921538</v>
       </c>
       <c r="W11">
-        <v>-319.95978713312343</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>-609.58862699309248</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>364.13589150900322</v>
+        <v>-48.303312143790208</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -1515,156 +1630,266 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>-380.84186329898148</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>-57.333918541340608</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>-354.30553278567459</v>
+        <v>642.41230775276472</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="0"/>
+        <v>916.04852966184399</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B12">
+    <row r="12" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF12" s="1"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B13">
         <f>SUM(B2:B11)</f>
-        <v>2568.0361979479812</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ref="C12:O12" si="0">SUM(C2:C11)</f>
-        <v>5281.81219325037</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>4861.7420056053197</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>6913.2860697412743</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>4427.6078243845695</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>4575.6723768061784</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>8467.190052182892</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>3688.417456248696</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>5141.6704973203459</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="0"/>
-        <v>3052.5810786275201</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="0"/>
-        <v>4630.851608005556</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="0"/>
-        <v>2948.3627566648365</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="0"/>
-        <v>5306.2274468857158</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="0"/>
-        <v>6897.6355850429591</v>
-      </c>
-      <c r="P12">
-        <f t="shared" ref="P12" si="1">SUM(P2:P11)</f>
-        <v>4773.6464915093147</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" ref="Q12" si="2">SUM(Q2:Q11)</f>
-        <v>1979.7150481464312</v>
-      </c>
-      <c r="R12">
-        <f t="shared" ref="R12" si="3">SUM(R2:R11)</f>
-        <v>4295.4959222995194</v>
-      </c>
-      <c r="S12">
-        <f t="shared" ref="S12" si="4">SUM(S2:S11)</f>
-        <v>2905.0573057903225</v>
-      </c>
-      <c r="T12">
-        <f t="shared" ref="T12" si="5">SUM(T2:T11)</f>
-        <v>7598.9063237387472</v>
-      </c>
-      <c r="U12">
-        <f t="shared" ref="U12" si="6">SUM(U2:U11)</f>
-        <v>4942.2062114055198</v>
-      </c>
-      <c r="V12">
-        <f t="shared" ref="V12" si="7">SUM(V2:V11)</f>
-        <v>5942.2921420562907</v>
-      </c>
-      <c r="W12">
-        <f t="shared" ref="W12" si="8">SUM(W2:W11)</f>
-        <v>4253.4984427094723</v>
-      </c>
-      <c r="X12">
-        <f t="shared" ref="X12" si="9">SUM(X2:X11)</f>
-        <v>5526.5218587611616</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" ref="Y12" si="10">SUM(Y2:Y11)</f>
-        <v>3844.4642505333413</v>
-      </c>
-      <c r="Z12">
-        <f t="shared" ref="Z12" si="11">SUM(Z2:Z11)</f>
-        <v>2877.134403635077</v>
-      </c>
-      <c r="AA12">
-        <f t="shared" ref="AA12:AB12" si="12">SUM(AA2:AA11)</f>
-        <v>3491.9052494160333</v>
-      </c>
-      <c r="AB12">
-        <f t="shared" si="12"/>
-        <v>4958.8670419683403</v>
-      </c>
-      <c r="AC12">
-        <f t="shared" ref="AC12" si="13">SUM(AC2:AC11)</f>
-        <v>5835.4803024065222</v>
-      </c>
-      <c r="AD12">
-        <f t="shared" ref="AD12" si="14">SUM(AD2:AD11)</f>
-        <v>5514.1392984680442</v>
-      </c>
-      <c r="AE12">
-        <f t="shared" ref="AE12" si="15">SUM(AE2:AE11)</f>
-        <v>5050.7985015115264</v>
+        <v>1072.4311600981391</v>
+      </c>
+      <c r="C13">
+        <f>SUM(C2:C11)</f>
+        <v>1072.4311600981391</v>
+      </c>
+      <c r="D13">
+        <f>SUM(D2:D11)</f>
+        <v>1072.4311600981391</v>
+      </c>
+      <c r="E13">
+        <f>SUM(E2:E11)</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>SUM(F2:F11)</f>
+        <v>1642.320237937397</v>
+      </c>
+      <c r="G13">
+        <f>SUM(G2:G11)</f>
+        <v>334.45650656856355</v>
+      </c>
+      <c r="H13">
+        <f>SUM(H2:H11)</f>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f>SUM(I2:I11)</f>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f>SUM(J2:J11)</f>
+        <v>-178.12656890041535</v>
+      </c>
+      <c r="K13">
+        <f>SUM(K2:K11)</f>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f>SUM(L2:L11)</f>
+        <v>11.569941297971582</v>
+      </c>
+      <c r="M13">
+        <f>SUM(M2:M11)</f>
+        <v>-286.65345366809834</v>
+      </c>
+      <c r="N13">
+        <f>SUM(N2:N11)</f>
+        <v>243.41859532190256</v>
+      </c>
+      <c r="O13">
+        <f>SUM(O2:O11)</f>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f>SUM(P2:P11)</f>
+        <v>263.3485179014915</v>
+      </c>
+      <c r="Q13">
+        <f>SUM(Q2:Q11)</f>
+        <v>248.31754692226335</v>
+      </c>
+      <c r="R13">
+        <f>SUM(R2:R11)</f>
+        <v>-46.884068478946574</v>
+      </c>
+      <c r="S13">
+        <f>SUM(S2:S11)</f>
+        <v>-53.79769517846762</v>
+      </c>
+      <c r="T13">
+        <f>SUM(T2:T11)</f>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f>SUM(U2:U11)</f>
+        <v>203.38345593933104</v>
+      </c>
+      <c r="V13">
+        <f>SUM(V2:V11)</f>
+        <v>810.0116983683165</v>
+      </c>
+      <c r="W13">
+        <f>SUM(W2:W11)</f>
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <f>SUM(X2:X11)</f>
+        <v>473.19321818263285</v>
+      </c>
+      <c r="Y13">
+        <f>SUM(Y2:Y11)</f>
+        <v>421.72372339547064</v>
+      </c>
+      <c r="Z13">
+        <f>SUM(Z2:Z11)</f>
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <f>SUM(AA2:AA11)</f>
+        <v>579.4169683798109</v>
+      </c>
+      <c r="AB13">
+        <f>SUM(AB2:AB11)</f>
+        <v>1034.1057014069975</v>
+      </c>
+      <c r="AC13">
+        <f>SUM(AC2:AC11)</f>
+        <v>1205.8170259838696</v>
+      </c>
+      <c r="AD13">
+        <f>SUM(AD2:AD11)</f>
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <f>SUM(AE2:AE11)</f>
+        <v>601.07231285723901</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="AE13">
-        <f>AVERAGE(B12:AE12)</f>
-        <v>4751.7073981023295</v>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AD15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE15">
+        <f>AVERAGE(B13:AE13)</f>
+        <v>357.46623815105823</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="AE14">
-        <f>STDEV(B12:AE12)</f>
-        <v>1503.4172592171328</v>
+    <row r="16" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="AD16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE16">
+        <f>STDEV(B13:AE13)</f>
+        <v>493.22860389360761</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="AE15">
-        <f>SUM(B12:AE12)</f>
-        <v>142551.22194306989</v>
+    <row r="17" spans="30:31" ht="45" x14ac:dyDescent="0.25">
+      <c r="AD17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE17">
+        <f>SUM(B13:AE13)</f>
+        <v>10723.987144531748</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>